--- a/example_output/csv_data/VMTP_wind.xlsx
+++ b/example_output/csv_data/VMTP_wind.xlsx
@@ -627,7 +627,7 @@
         <v>13.15033501462059</v>
       </c>
       <c r="C17">
-        <v>6.234632</v>
+        <v>6.128577557148986</v>
       </c>
       <c r="D17" t="b">
         <v>1</v>
@@ -641,7 +641,7 @@
         <v>13.54695837503723</v>
       </c>
       <c r="C18">
-        <v>6.3771</v>
+        <v>6.1766</v>
       </c>
       <c r="D18" t="b">
         <v>1</v>
@@ -655,7 +655,7 @@
         <v>13.92574047659481</v>
       </c>
       <c r="C19">
-        <v>6.417661404184316</v>
+        <v>6.2847</v>
       </c>
       <c r="D19" t="b">
         <v>1</v>
@@ -669,7 +669,7 @@
         <v>14.31882973372521</v>
       </c>
       <c r="C20">
-        <v>6.417661404184316</v>
+        <v>6.3757</v>
       </c>
       <c r="D20" t="b">
         <v>1</v>
@@ -697,7 +697,7 @@
         <v>15.03883446669472</v>
       </c>
       <c r="C22">
-        <v>6.81315</v>
+        <v>6.7736909842173</v>
       </c>
       <c r="D22" t="b">
         <v>1</v>
@@ -711,7 +711,7 @@
         <v>15.37897078193869</v>
       </c>
       <c r="C23">
-        <v>6.94115</v>
+        <v>6.7736909842173</v>
       </c>
       <c r="D23" t="b">
         <v>1</v>
@@ -725,7 +725,7 @@
         <v>15.72444814243008</v>
       </c>
       <c r="C24">
-        <v>7.0113</v>
+        <v>6.7736909842173</v>
       </c>
       <c r="D24" t="b">
         <v>1</v>
@@ -739,7 +739,7 @@
         <v>16.05954477652563</v>
       </c>
       <c r="C25">
-        <v>7.093204709887928</v>
+        <v>6.873276000000001</v>
       </c>
       <c r="D25" t="b">
         <v>1</v>
@@ -753,7 +753,7 @@
         <v>16.36531368412792</v>
       </c>
       <c r="C26">
-        <v>7.093204709887928</v>
+        <v>7.0058</v>
       </c>
       <c r="D26" t="b">
         <v>1</v>
@@ -2031,7 +2031,7 @@
         <v>12.38438848109405</v>
       </c>
       <c r="C16">
-        <v>6.148284</v>
+        <v>6.128577557148986</v>
       </c>
       <c r="D16" t="b">
         <v>1</v>
@@ -2045,7 +2045,7 @@
         <v>12.8203135850396</v>
       </c>
       <c r="C17">
-        <v>6.315144</v>
+        <v>6.1795</v>
       </c>
       <c r="D17" t="b">
         <v>1</v>
@@ -2059,7 +2059,7 @@
         <v>13.26829942031756</v>
       </c>
       <c r="C18">
-        <v>6.417661404184316</v>
+        <v>6.2972</v>
       </c>
       <c r="D18" t="b">
         <v>1</v>
@@ -2073,7 +2073,7 @@
         <v>13.58951736789202</v>
       </c>
       <c r="C19">
-        <v>6.417661404184316</v>
+        <v>6.4121</v>
       </c>
       <c r="D19" t="b">
         <v>1</v>
@@ -2101,7 +2101,7 @@
         <v>14.30938595315749</v>
       </c>
       <c r="C21">
-        <v>6.773899999999999</v>
+        <v>6.7736909842173</v>
       </c>
       <c r="D21" t="b">
         <v>1</v>
@@ -2115,7 +2115,7 @@
         <v>14.65318210085537</v>
       </c>
       <c r="C22">
-        <v>6.9317</v>
+        <v>6.7736909842173</v>
       </c>
       <c r="D22" t="b">
         <v>1</v>
@@ -2129,7 +2129,7 @@
         <v>14.97612288774189</v>
       </c>
       <c r="C23">
-        <v>7.0345</v>
+        <v>6.830762</v>
       </c>
       <c r="D23" t="b">
         <v>1</v>
@@ -2143,7 +2143,7 @@
         <v>15.36414930152728</v>
       </c>
       <c r="C24">
-        <v>7.093204709887928</v>
+        <v>6.957697</v>
       </c>
       <c r="D24" t="b">
         <v>1</v>
@@ -2157,7 +2157,7 @@
         <v>15.68559683300393</v>
       </c>
       <c r="C25">
-        <v>7.093204709887928</v>
+        <v>7.047104</v>
       </c>
       <c r="D25" t="b">
         <v>1</v>
@@ -3437,7 +3437,7 @@
         <v>12.5200595477186</v>
       </c>
       <c r="C16">
-        <v>6.217508</v>
+        <v>6.128577557148986</v>
       </c>
       <c r="D16" t="b">
         <v>1</v>
@@ -3451,7 +3451,7 @@
         <v>12.952525411366</v>
       </c>
       <c r="C17">
-        <v>6.396731999999999</v>
+        <v>6.2662</v>
       </c>
       <c r="D17" t="b">
         <v>1</v>
@@ -3465,7 +3465,7 @@
         <v>13.34228528930777</v>
       </c>
       <c r="C18">
-        <v>6.417661404184316</v>
+        <v>6.3838</v>
       </c>
       <c r="D18" t="b">
         <v>1</v>
@@ -3493,7 +3493,7 @@
         <v>14.00028437077713</v>
       </c>
       <c r="C20">
-        <v>6.8087</v>
+        <v>6.7736909842173</v>
       </c>
       <c r="D20" t="b">
         <v>1</v>
@@ -3507,7 +3507,7 @@
         <v>14.40043492103003</v>
       </c>
       <c r="C21">
-        <v>6.938</v>
+        <v>6.7736909842173</v>
       </c>
       <c r="D21" t="b">
         <v>1</v>
@@ -3521,7 +3521,7 @@
         <v>14.71247115161796</v>
       </c>
       <c r="C22">
-        <v>7.0493</v>
+        <v>6.84633</v>
       </c>
       <c r="D22" t="b">
         <v>1</v>
@@ -3535,7 +3535,7 @@
         <v>14.9992863987797</v>
       </c>
       <c r="C23">
-        <v>7.093204709887928</v>
+        <v>7.003941999999999</v>
       </c>
       <c r="D23" t="b">
         <v>1</v>
@@ -3549,7 +3549,7 @@
         <v>15.29578656924864</v>
       </c>
       <c r="C24">
-        <v>7.093204709887928</v>
+        <v>7.066104</v>
       </c>
       <c r="D24" t="b">
         <v>1</v>
@@ -4861,7 +4861,7 @@
         <v>12.54363029253101</v>
       </c>
       <c r="C16">
-        <v>6.231158</v>
+        <v>6.153700000000001</v>
       </c>
       <c r="D16" t="b">
         <v>1</v>
@@ -4875,7 +4875,7 @@
         <v>12.93163676418511</v>
       </c>
       <c r="C17">
-        <v>6.417661404184316</v>
+        <v>6.2892</v>
       </c>
       <c r="D17" t="b">
         <v>1</v>
@@ -4917,7 +4917,7 @@
         <v>14.08358567492575</v>
       </c>
       <c r="C20">
-        <v>6.8364</v>
+        <v>6.7736909842173</v>
       </c>
       <c r="D20" t="b">
         <v>1</v>
@@ -4931,7 +4931,7 @@
         <v>14.39495898755073</v>
       </c>
       <c r="C21">
-        <v>7.0085</v>
+        <v>6.885344</v>
       </c>
       <c r="D21" t="b">
         <v>1</v>
@@ -4945,7 +4945,7 @@
         <v>14.73971187208137</v>
       </c>
       <c r="C22">
-        <v>7.093204709887928</v>
+        <v>7.024208000000001</v>
       </c>
       <c r="D22" t="b">
         <v>1</v>
@@ -6223,7 +6223,7 @@
         <v>12.01716095605593</v>
       </c>
       <c r="C15">
-        <v>6.134106</v>
+        <v>6.128577557148986</v>
       </c>
       <c r="D15" t="b">
         <v>1</v>
@@ -6237,7 +6237,7 @@
         <v>12.37600221037224</v>
       </c>
       <c r="C16">
-        <v>6.233009999999999</v>
+        <v>6.18275</v>
       </c>
       <c r="D16" t="b">
         <v>1</v>
@@ -6251,7 +6251,7 @@
         <v>12.80115363719789</v>
       </c>
       <c r="C17">
-        <v>6.417661404184316</v>
+        <v>6.389</v>
       </c>
       <c r="D17" t="b">
         <v>1</v>
@@ -6265,7 +6265,7 @@
         <v>13.2187068706023</v>
       </c>
       <c r="C18">
-        <v>6.7854</v>
+        <v>6.7736909842173</v>
       </c>
       <c r="D18" t="b">
         <v>1</v>
@@ -6279,7 +6279,7 @@
         <v>13.55012015991357</v>
       </c>
       <c r="C19">
-        <v>6.8461</v>
+        <v>6.7736909842173</v>
       </c>
       <c r="D19" t="b">
         <v>1</v>
@@ -6293,7 +6293,7 @@
         <v>13.86644516398873</v>
       </c>
       <c r="C20">
-        <v>6.9183</v>
+        <v>6.809672</v>
       </c>
       <c r="D20" t="b">
         <v>1</v>
@@ -6307,7 +6307,7 @@
         <v>14.19633767497795</v>
       </c>
       <c r="C21">
-        <v>7.0452</v>
+        <v>6.956778</v>
       </c>
       <c r="D21" t="b">
         <v>1</v>
@@ -7604,7 +7604,7 @@
         <v>12.33849763060225</v>
       </c>
       <c r="C16">
-        <v>6.196943999999999</v>
+        <v>6.128577557148986</v>
       </c>
       <c r="D16" t="b">
         <v>1</v>
@@ -7618,7 +7618,7 @@
         <v>12.81441707085527</v>
       </c>
       <c r="C17">
-        <v>6.417661404184316</v>
+        <v>6.309950000000001</v>
       </c>
       <c r="D17" t="b">
         <v>1</v>
@@ -7646,7 +7646,7 @@
         <v>13.5363132353661</v>
       </c>
       <c r="C19">
-        <v>6.8171</v>
+        <v>6.7736909842173</v>
       </c>
       <c r="D19" t="b">
         <v>1</v>
@@ -7660,7 +7660,7 @@
         <v>13.84636545501989</v>
       </c>
       <c r="C20">
-        <v>6.8461</v>
+        <v>6.7736909842173</v>
       </c>
       <c r="D20" t="b">
         <v>1</v>
@@ -7674,7 +7674,7 @@
         <v>14.20746493479632</v>
       </c>
       <c r="C21">
-        <v>6.98075</v>
+        <v>6.801851</v>
       </c>
       <c r="D21" t="b">
         <v>1</v>
@@ -7688,7 +7688,7 @@
         <v>14.56762846539166</v>
       </c>
       <c r="C22">
-        <v>7.093204709887928</v>
+        <v>7.0616</v>
       </c>
       <c r="D22" t="b">
         <v>1</v>
@@ -8880,7 +8880,7 @@
         <v>13.13896431798275</v>
       </c>
       <c r="C17">
-        <v>6.180588</v>
+        <v>6.128577557148986</v>
       </c>
       <c r="D17" t="b">
         <v>1</v>
@@ -8894,7 +8894,7 @@
         <v>13.50339414479128</v>
       </c>
       <c r="C18">
-        <v>6.322508</v>
+        <v>6.2136</v>
       </c>
       <c r="D18" t="b">
         <v>1</v>
@@ -8908,7 +8908,7 @@
         <v>13.94052738498006</v>
       </c>
       <c r="C19">
-        <v>6.417661404184316</v>
+        <v>6.3504</v>
       </c>
       <c r="D19" t="b">
         <v>1</v>
@@ -8950,7 +8950,7 @@
         <v>15.10289818678464</v>
       </c>
       <c r="C22">
-        <v>6.8781</v>
+        <v>6.7736909842173</v>
       </c>
       <c r="D22" t="b">
         <v>1</v>
@@ -8964,7 +8964,7 @@
         <v>15.46227757737512</v>
       </c>
       <c r="C23">
-        <v>6.9921</v>
+        <v>6.886656</v>
       </c>
       <c r="D23" t="b">
         <v>1</v>
@@ -8978,7 +8978,7 @@
         <v>15.84610193606298</v>
       </c>
       <c r="C24">
-        <v>7.04765</v>
+        <v>6.95474</v>
       </c>
       <c r="D24" t="b">
         <v>1</v>
@@ -8992,7 +8992,7 @@
         <v>16.15593322638282</v>
       </c>
       <c r="C25">
-        <v>7.093204709887928</v>
+        <v>7.046490243855914</v>
       </c>
       <c r="D25" t="b">
         <v>1</v>
@@ -10068,7 +10068,7 @@
         <v>14.27133103361016</v>
       </c>
       <c r="C19">
-        <v>6.236626</v>
+        <v>6.13815</v>
       </c>
       <c r="D19" t="b">
         <v>1</v>
@@ -10082,7 +10082,7 @@
         <v>14.70636593883538</v>
       </c>
       <c r="C20">
-        <v>6.31822</v>
+        <v>6.2285</v>
       </c>
       <c r="D20" t="b">
         <v>1</v>
@@ -10096,7 +10096,7 @@
         <v>15.12794184828487</v>
       </c>
       <c r="C21">
-        <v>6.378798</v>
+        <v>6.3211</v>
       </c>
       <c r="D21" t="b">
         <v>1</v>
@@ -10110,7 +10110,7 @@
         <v>15.52887666135064</v>
       </c>
       <c r="C22">
-        <v>6.417661404184316</v>
+        <v>6.39</v>
       </c>
       <c r="D22" t="b">
         <v>1</v>
@@ -10152,7 +10152,7 @@
         <v>16.69210186338704</v>
       </c>
       <c r="C25">
-        <v>6.8793</v>
+        <v>6.7736909842173</v>
       </c>
       <c r="D25" t="b">
         <v>1</v>
@@ -10166,7 +10166,7 @@
         <v>16.99731607423426</v>
       </c>
       <c r="C26">
-        <v>6.9832</v>
+        <v>6.86982</v>
       </c>
       <c r="D26" t="b">
         <v>1</v>
@@ -10180,7 +10180,7 @@
         <v>17.44479288723992</v>
       </c>
       <c r="C27">
-        <v>7.093204709887928</v>
+        <v>6.998527437772841</v>
       </c>
       <c r="D27" t="b">
         <v>1</v>
@@ -11278,7 +11278,7 @@
         <v>14.73623163921221</v>
       </c>
       <c r="C20">
-        <v>6.24344</v>
+        <v>6.1447</v>
       </c>
       <c r="D20" t="b">
         <v>1</v>
@@ -11292,7 +11292,7 @@
         <v>15.15507798255104</v>
       </c>
       <c r="C21">
-        <v>6.318212</v>
+        <v>6.2558</v>
       </c>
       <c r="D21" t="b">
         <v>1</v>
@@ -11306,7 +11306,7 @@
         <v>15.60454405385173</v>
       </c>
       <c r="C22">
-        <v>6.4005</v>
+        <v>6.3599</v>
       </c>
       <c r="D22" t="b">
         <v>1</v>
@@ -11376,7 +11376,7 @@
         <v>17.54081067030275</v>
       </c>
       <c r="C27">
-        <v>6.9402</v>
+        <v>6.822156000000001</v>
       </c>
       <c r="D27" t="b">
         <v>1</v>
@@ -11390,7 +11390,7 @@
         <v>17.99732117279145</v>
       </c>
       <c r="C28">
-        <v>7.03415</v>
+        <v>6.97771</v>
       </c>
       <c r="D28" t="b">
         <v>1</v>
@@ -11404,7 +11404,7 @@
         <v>18.32861655573654</v>
       </c>
       <c r="C29">
-        <v>7.093204709887928</v>
+        <v>7.053795</v>
       </c>
       <c r="D29" t="b">
         <v>1</v>
@@ -12420,7 +12420,7 @@
         <v>15.18294750027687</v>
       </c>
       <c r="C20">
-        <v>6.1858</v>
+        <v>6.128577557148986</v>
       </c>
       <c r="D20" t="b">
         <v>1</v>
@@ -12434,7 +12434,7 @@
         <v>15.53934758450786</v>
       </c>
       <c r="C21">
-        <v>6.275539999999999</v>
+        <v>6.1955</v>
       </c>
       <c r="D21" t="b">
         <v>1</v>
@@ -12448,7 +12448,7 @@
         <v>16.03404028965966</v>
       </c>
       <c r="C22">
-        <v>6.36404</v>
+        <v>6.3</v>
       </c>
       <c r="D22" t="b">
         <v>1</v>
@@ -12462,7 +12462,7 @@
         <v>16.44749198651743</v>
       </c>
       <c r="C23">
-        <v>6.417661404184316</v>
+        <v>6.37505</v>
       </c>
       <c r="D23" t="b">
         <v>1</v>
@@ -12518,7 +12518,7 @@
         <v>17.95823719693611</v>
       </c>
       <c r="C27">
-        <v>6.88325</v>
+        <v>6.7736909842173</v>
       </c>
       <c r="D27" t="b">
         <v>1</v>
@@ -12532,7 +12532,7 @@
         <v>18.44005016279971</v>
       </c>
       <c r="C28">
-        <v>6.97925</v>
+        <v>6.88826</v>
       </c>
       <c r="D28" t="b">
         <v>1</v>
@@ -12546,7 +12546,7 @@
         <v>18.85393156499716</v>
       </c>
       <c r="C29">
-        <v>7.064527619655371</v>
+        <v>6.990284022413692</v>
       </c>
       <c r="D29" t="b">
         <v>1</v>
@@ -12560,7 +12560,7 @@
         <v>19.24134008458853</v>
       </c>
       <c r="C30">
-        <v>7.093204709887928</v>
+        <v>7.073555040636824</v>
       </c>
       <c r="D30" t="b">
         <v>1</v>
@@ -13554,7 +13554,7 @@
         <v>16.91947278166533</v>
       </c>
       <c r="C22">
-        <v>6.187728000000001</v>
+        <v>6.128577557148986</v>
       </c>
       <c r="D22" t="b">
         <v>1</v>
@@ -13568,7 +13568,7 @@
         <v>17.27649196754967</v>
       </c>
       <c r="C23">
-        <v>6.308628</v>
+        <v>6.24655</v>
       </c>
       <c r="D23" t="b">
         <v>1</v>
@@ -13582,7 +13582,7 @@
         <v>17.85668478312338</v>
       </c>
       <c r="C24">
-        <v>6.417661404184316</v>
+        <v>6.358827391277695</v>
       </c>
       <c r="D24" t="b">
         <v>1</v>
@@ -13666,7 +13666,7 @@
         <v>20.6561353559303</v>
       </c>
       <c r="C30">
-        <v>6.840224363517263</v>
+        <v>6.7736909842173</v>
       </c>
       <c r="D30" t="b">
         <v>1</v>
@@ -13680,7 +13680,7 @@
         <v>21.10464575476196</v>
       </c>
       <c r="C31">
-        <v>6.90711803636365</v>
+        <v>6.824652172142002</v>
       </c>
       <c r="D31" t="b">
         <v>1</v>
@@ -13694,7 +13694,7 @@
         <v>21.54906724581558</v>
       </c>
       <c r="C32">
-        <v>6.971619619162282</v>
+        <v>6.888862689544663</v>
       </c>
       <c r="D32" t="b">
         <v>1</v>
@@ -13708,7 +13708,7 @@
         <v>21.98967316012927</v>
       </c>
       <c r="C33">
-        <v>7.034261273415986</v>
+        <v>6.951375078310891</v>
       </c>
       <c r="D33" t="b">
         <v>1</v>
@@ -13722,7 +13722,7 @@
         <v>22.42670669497075</v>
       </c>
       <c r="C34">
-        <v>7.093204709887928</v>
+        <v>7.012764308233089</v>
       </c>
       <c r="D34" t="b">
         <v>1</v>
@@ -13736,7 +13736,7 @@
         <v>22.86039792387342</v>
       </c>
       <c r="C35">
-        <v>7.093204709887928</v>
+        <v>7.073605349103663</v>
       </c>
       <c r="D35" t="b">
         <v>1</v>
@@ -14652,7 +14652,7 @@
         <v>16.23550603592376</v>
       </c>
       <c r="C21">
-        <v>6.204912</v>
+        <v>6.128577557148986</v>
       </c>
       <c r="D21" t="b">
         <v>1</v>
@@ -14666,7 +14666,7 @@
         <v>16.79810710952388</v>
       </c>
       <c r="C22">
-        <v>6.312056</v>
+        <v>6.21585</v>
       </c>
       <c r="D22" t="b">
         <v>1</v>
@@ -14680,7 +14680,7 @@
         <v>17.12806919045045</v>
       </c>
       <c r="C23">
-        <v>6.390284</v>
+        <v>6.3263</v>
       </c>
       <c r="D23" t="b">
         <v>1</v>
@@ -14694,7 +14694,7 @@
         <v>17.60730661875376</v>
       </c>
       <c r="C24">
-        <v>6.417661404184316</v>
+        <v>6.39935</v>
       </c>
       <c r="D24" t="b">
         <v>1</v>
@@ -14750,7 +14750,7 @@
         <v>19.32863685919223</v>
       </c>
       <c r="C28">
-        <v>6.9074</v>
+        <v>6.7736909842173</v>
       </c>
       <c r="D28" t="b">
         <v>1</v>
@@ -14764,7 +14764,7 @@
         <v>19.80724392105755</v>
       </c>
       <c r="C29">
-        <v>7.058452344393936</v>
+        <v>6.939438328537795</v>
       </c>
       <c r="D29" t="b">
         <v>1</v>
@@ -14778,7 +14778,7 @@
         <v>20.21545659173315</v>
       </c>
       <c r="C30">
-        <v>7.093204709887928</v>
+        <v>7.039263628647083</v>
       </c>
       <c r="D30" t="b">
         <v>1</v>
@@ -15890,7 +15890,7 @@
         <v>13.63584444642649</v>
       </c>
       <c r="C18">
-        <v>6.244792</v>
+        <v>6.128577557148986</v>
       </c>
       <c r="D18" t="b">
         <v>1</v>
@@ -15904,7 +15904,7 @@
         <v>14.07818563243346</v>
       </c>
       <c r="C19">
-        <v>6.34171</v>
+        <v>6.21565</v>
       </c>
       <c r="D19" t="b">
         <v>1</v>
@@ -15918,7 +15918,7 @@
         <v>14.47528616290405</v>
       </c>
       <c r="C20">
-        <v>6.417661404184316</v>
+        <v>6.3385</v>
       </c>
       <c r="D20" t="b">
         <v>1</v>
@@ -15960,7 +15960,7 @@
         <v>15.72228378233085</v>
       </c>
       <c r="C23">
-        <v>6.8508</v>
+        <v>6.7736909842173</v>
       </c>
       <c r="D23" t="b">
         <v>1</v>
@@ -15974,7 +15974,7 @@
         <v>16.09836362418974</v>
       </c>
       <c r="C24">
-        <v>6.9182</v>
+        <v>6.7736909842173</v>
       </c>
       <c r="D24" t="b">
         <v>1</v>
@@ -15988,7 +15988,7 @@
         <v>16.4532926582946</v>
       </c>
       <c r="C25">
-        <v>7.0126</v>
+        <v>6.876046</v>
       </c>
       <c r="D25" t="b">
         <v>1</v>
@@ -16002,7 +16002,7 @@
         <v>16.86856930075858</v>
       </c>
       <c r="C26">
-        <v>7.091799999999999</v>
+        <v>6.962471</v>
       </c>
       <c r="D26" t="b">
         <v>1</v>
@@ -16016,7 +16016,7 @@
         <v>17.25371632074334</v>
       </c>
       <c r="C27">
-        <v>7.093204709887928</v>
+        <v>7.07656</v>
       </c>
       <c r="D27" t="b">
         <v>1</v>
